--- a/analysis/mails_01/P10_1/table_to_fill.xlsx
+++ b/analysis/mails_01/P10_1/table_to_fill.xlsx
@@ -63,7 +63,7 @@
     <t xml:space="preserve">sediment</t>
   </si>
   <si>
-    <t xml:space="preserve">30/07/2020 00:00</t>
+    <t xml:space="preserve">2020-07-30</t>
   </si>
   <si>
     <t xml:space="preserve">56.2176</t>
@@ -99,7 +99,7 @@
     <t xml:space="preserve">MFD00657</t>
   </si>
   <si>
-    <t xml:space="preserve">07/07/2020 00:00</t>
+    <t xml:space="preserve">2020-07-07</t>
   </si>
   <si>
     <t xml:space="preserve">55.0754</t>
@@ -111,7 +111,7 @@
     <t xml:space="preserve">MFD00726</t>
   </si>
   <si>
-    <t xml:space="preserve">09/07/2020 00:00</t>
+    <t xml:space="preserve">2020-07-09</t>
   </si>
   <si>
     <t xml:space="preserve">55.6642</t>
@@ -123,7 +123,7 @@
     <t xml:space="preserve">MFD00867</t>
   </si>
   <si>
-    <t xml:space="preserve">29/07/2020 00:00</t>
+    <t xml:space="preserve">2020-07-29</t>
   </si>
   <si>
     <t xml:space="preserve">56.4461</t>
@@ -138,7 +138,7 @@
     <t xml:space="preserve">MFD00925</t>
   </si>
   <si>
-    <t xml:space="preserve">08/09/2020 00:00</t>
+    <t xml:space="preserve">2020-09-08</t>
   </si>
   <si>
     <t xml:space="preserve">56.0624</t>
@@ -153,7 +153,7 @@
     <t xml:space="preserve">MFD00967</t>
   </si>
   <si>
-    <t xml:space="preserve">08/07/2020 00:00</t>
+    <t xml:space="preserve">2020-07-08</t>
   </si>
   <si>
     <t xml:space="preserve">55.5058</t>
@@ -165,7 +165,7 @@
     <t xml:space="preserve">MFD01074</t>
   </si>
   <si>
-    <t xml:space="preserve">16/07/2020 00:00</t>
+    <t xml:space="preserve">2020-07-16</t>
   </si>
   <si>
     <t xml:space="preserve">56.1742</t>
@@ -192,7 +192,7 @@
     <t xml:space="preserve">MFD01090</t>
   </si>
   <si>
-    <t xml:space="preserve">06/07/2020 00:00</t>
+    <t xml:space="preserve">2020-07-06</t>
   </si>
   <si>
     <t xml:space="preserve">55.8141</t>
@@ -231,7 +231,7 @@
     <t xml:space="preserve">MFD01304</t>
   </si>
   <si>
-    <t xml:space="preserve">13/07/2020 00:00</t>
+    <t xml:space="preserve">2020-07-13</t>
   </si>
   <si>
     <t xml:space="preserve">56.7288</t>
@@ -246,7 +246,7 @@
     <t xml:space="preserve">MFD01542</t>
   </si>
   <si>
-    <t xml:space="preserve">28/07/2020 00:00</t>
+    <t xml:space="preserve">2020-07-28</t>
   </si>
   <si>
     <t xml:space="preserve">56.647</t>
@@ -273,7 +273,7 @@
     <t xml:space="preserve">MFD01545</t>
   </si>
   <si>
-    <t xml:space="preserve">14/07/2020 00:00</t>
+    <t xml:space="preserve">2020-07-14</t>
   </si>
   <si>
     <t xml:space="preserve">57.4289</t>
@@ -309,7 +309,7 @@
     <t xml:space="preserve">MFD01549</t>
   </si>
   <si>
-    <t xml:space="preserve">15/07/2020 00:00</t>
+    <t xml:space="preserve">2020-07-15</t>
   </si>
   <si>
     <t xml:space="preserve">57.4409</t>
@@ -354,7 +354,7 @@
     <t xml:space="preserve">MFD01559</t>
   </si>
   <si>
-    <t xml:space="preserve">27/07/2020 00:00</t>
+    <t xml:space="preserve">2020-07-27</t>
   </si>
   <si>
     <t xml:space="preserve">56.6219</t>
@@ -903,7 +903,7 @@
     <t xml:space="preserve">MFD02528</t>
   </si>
   <si>
-    <t xml:space="preserve">12/08/2020 00:00</t>
+    <t xml:space="preserve">2020-08-12</t>
   </si>
   <si>
     <t xml:space="preserve">56.553</t>
@@ -918,7 +918,7 @@
     <t xml:space="preserve">MFD02535</t>
   </si>
   <si>
-    <t xml:space="preserve">03/09/2020 00:00</t>
+    <t xml:space="preserve">2020-09-03</t>
   </si>
   <si>
     <t xml:space="preserve">56.0566</t>
@@ -957,7 +957,7 @@
     <t xml:space="preserve">MFD02905</t>
   </si>
   <si>
-    <t xml:space="preserve">13/08/2020 00:00</t>
+    <t xml:space="preserve">2020-08-13</t>
   </si>
   <si>
     <t xml:space="preserve">55.9897</t>
@@ -972,7 +972,7 @@
     <t xml:space="preserve">MFD02925</t>
   </si>
   <si>
-    <t xml:space="preserve">07/09/2020 00:00</t>
+    <t xml:space="preserve">2020-09-07</t>
   </si>
   <si>
     <t xml:space="preserve">56.1728</t>
@@ -996,7 +996,7 @@
     <t xml:space="preserve">MFD02938</t>
   </si>
   <si>
-    <t xml:space="preserve">11/08/2020 00:00</t>
+    <t xml:space="preserve">2020-08-11</t>
   </si>
   <si>
     <t xml:space="preserve">55.5904</t>
@@ -1029,7 +1029,7 @@
     <t xml:space="preserve">MFD02960</t>
   </si>
   <si>
-    <t xml:space="preserve">10/08/2020 00:00</t>
+    <t xml:space="preserve">2020-08-10</t>
   </si>
   <si>
     <t xml:space="preserve">55.7456</t>
